--- a/DataSet/LoanIQ_DataSet/EU_Entity/TL_EU/SC4_TL_BaseRate_Files_EU/TL_Transformed_Data_BaseRate.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/TL_EU/SC4_TL_BaseRate_Files_EU/TL_Transformed_Data_BaseRate.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.092</t>
+          <t>4.094</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-02-01</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -558,6 +558,231 @@
         </is>
       </c>
       <c r="O2" t="inlineStr">
+        <is>
+          <t>AUD,EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LIBOR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.094</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>001M</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>IBOR</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>COMRLENDING</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>AUD,EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LIBOR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.094</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>001M</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>IBOR</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>COMRLENDING</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>AUD,EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NIBOR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.094</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>001M</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>IBOR</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>COMRLENDING</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>AUD,EUR</t>
         </is>

--- a/DataSet/LoanIQ_DataSet/EU_Entity/TL_EU/SC4_TL_BaseRate_Files_EU/TL_Transformed_Data_BaseRate.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/TL_EU/SC4_TL_BaseRate_Files_EU/TL_Transformed_Data_BaseRate.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.094</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.094</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.094</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.094</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
